--- a/Simulated/88Inch_Activation/Foils_Vault.xlsx
+++ b/Simulated/88Inch_Activation/Foils_Vault.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,10 +902,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="4">
-        <v>511</v>
+        <v>159.38</v>
       </c>
       <c r="D16" s="4">
-        <v>169.6</v>
+        <v>68.3</v>
       </c>
       <c r="E16" s="6">
         <v>9950000000</v>
